--- a/data/trans_orig/iP30KDA4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDA4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22DA1938-8DB8-42B3-8FA6-49356891EF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF5DCBA-304E-4047-BF2E-D8E1F8821205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B0F2916-665C-4218-8DCE-63D7E942F75F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BC36AEE9-F776-41A2-B5B5-8A0B0D4A7080}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores según si toman verduras frescas o cocinadas más de una vez al día en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,226 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E603E345-A77E-4182-9EF2-C1B5340BD5E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAB95A7-B8B3-4BEA-BE21-A2158F6DB7B0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -886,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>24476</v>
+        <v>21476</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -901,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I4" s="7">
-        <v>21909</v>
+        <v>25451</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -919,7 +919,7 @@
         <v>79</v>
       </c>
       <c r="N4" s="7">
-        <v>46385</v>
+        <v>46927</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -937,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7">
-        <v>18668</v>
+        <v>25019</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -952,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I5" s="7">
-        <v>24384</v>
+        <v>19834</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -970,7 +970,7 @@
         <v>85</v>
       </c>
       <c r="N5" s="7">
-        <v>43051</v>
+        <v>44852</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -988,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>81</v>
       </c>
-      <c r="D6" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
       <c r="I6" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1021,7 +1021,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1041,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D7" s="7">
-        <v>94188</v>
+        <v>73863</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1056,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I7" s="7">
-        <v>75582</v>
+        <v>96228</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1074,7 +1074,7 @@
         <v>268</v>
       </c>
       <c r="N7" s="7">
-        <v>169770</v>
+        <v>170092</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1092,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D8" s="7">
-        <v>80529</v>
+        <v>85436</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1107,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I8" s="7">
-        <v>83183</v>
+        <v>85731</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1125,7 +1125,7 @@
         <v>265</v>
       </c>
       <c r="N8" s="7">
-        <v>163712</v>
+        <v>171167</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1143,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1176,7 +1176,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1196,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D10" s="7">
-        <v>94035</v>
+        <v>86335</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1211,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I10" s="7">
-        <v>88590</v>
+        <v>97769</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1229,7 +1229,7 @@
         <v>225</v>
       </c>
       <c r="N10" s="7">
-        <v>182625</v>
+        <v>184105</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1247,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D11" s="7">
-        <v>108443</v>
+        <v>86737</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1262,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="I11" s="7">
-        <v>87523</v>
+        <v>114721</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1280,7 +1280,7 @@
         <v>251</v>
       </c>
       <c r="N11" s="7">
-        <v>195966</v>
+        <v>201458</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1298,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1331,7 +1331,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1351,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D13" s="7">
-        <v>120446</v>
+        <v>96389</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1366,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I13" s="7">
-        <v>100661</v>
+        <v>127066</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1384,7 +1384,7 @@
         <v>273</v>
       </c>
       <c r="N13" s="7">
-        <v>221107</v>
+        <v>223455</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1402,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D14" s="7">
-        <v>168548</v>
+        <v>177878</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1417,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I14" s="7">
-        <v>158777</v>
+        <v>177933</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1435,7 +1435,7 @@
         <v>409</v>
       </c>
       <c r="N14" s="7">
-        <v>327326</v>
+        <v>355811</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1456,7 +1456,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1471,7 +1471,7 @@
         <v>341</v>
       </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1486,7 +1486,7 @@
         <v>682</v>
       </c>
       <c r="N15" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1506,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="D16" s="7">
-        <v>333145</v>
+        <v>278064</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -1521,10 +1521,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="I16" s="7">
-        <v>286742</v>
+        <v>346514</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -1539,7 +1539,7 @@
         <v>845</v>
       </c>
       <c r="N16" s="7">
-        <v>619886</v>
+        <v>624578</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -1557,10 +1557,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D17" s="7">
-        <v>376188</v>
+        <v>375070</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -1572,10 +1572,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I17" s="7">
-        <v>353867</v>
+        <v>398219</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -1590,7 +1590,7 @@
         <v>1010</v>
       </c>
       <c r="N17" s="7">
-        <v>730056</v>
+        <v>773289</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
@@ -1608,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>915</v>
+      </c>
+      <c r="D18" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>940</v>
       </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
       <c r="I18" s="7">
-        <v>640609</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1641,7 +1641,7 @@
         <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>1349942</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
